--- a/simulation_data/iterative_algorithm/i_error_level_4_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_4_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.57263621541389</v>
+        <v>90.25037983166963</v>
       </c>
       <c r="D2" t="n">
-        <v>4.660430421022403</v>
+        <v>3.686419564030572</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.51110828418632</v>
+        <v>89.00595212228146</v>
       </c>
       <c r="D3" t="n">
-        <v>4.55595542695691</v>
+        <v>4.185615184099524</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.66892686021264</v>
+        <v>88.35107595959946</v>
       </c>
       <c r="D4" t="n">
-        <v>3.906083526437391</v>
+        <v>3.827883679462876</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.12304356848718</v>
+        <v>87.04933794887373</v>
       </c>
       <c r="D5" t="n">
-        <v>4.870102158241101</v>
+        <v>4.247562684848083</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.44629493960203</v>
+        <v>86.61683176417404</v>
       </c>
       <c r="D6" t="n">
-        <v>3.876278431500582</v>
+        <v>4.149156067781155</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.03060802240205</v>
+        <v>85.1559082544796</v>
       </c>
       <c r="D7" t="n">
-        <v>4.259385327999065</v>
+        <v>4.035275356637574</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.58996831515202</v>
+        <v>83.93263790813144</v>
       </c>
       <c r="D8" t="n">
-        <v>5.060173552731845</v>
+        <v>3.643483099193363</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.30987062038777</v>
+        <v>83.40255037257575</v>
       </c>
       <c r="D9" t="n">
-        <v>4.282795426730432</v>
+        <v>4.368673611379319</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.56781468627811</v>
+        <v>82.31193395373217</v>
       </c>
       <c r="D10" t="n">
-        <v>4.935651592502812</v>
+        <v>3.716094122363671</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.58715148838148</v>
+        <v>80.69922916125407</v>
       </c>
       <c r="D11" t="n">
-        <v>4.248571051797744</v>
+        <v>3.741716305614959</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.24196655595206</v>
+        <v>79.37940778053556</v>
       </c>
       <c r="D12" t="n">
-        <v>4.523321082606354</v>
+        <v>4.690636907767895</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.95981221910426</v>
+        <v>79.36093261914638</v>
       </c>
       <c r="D13" t="n">
-        <v>4.252744833756505</v>
+        <v>4.087404607243791</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.01667967316513</v>
+        <v>78.29294806568367</v>
       </c>
       <c r="D14" t="n">
-        <v>4.556070767188383</v>
+        <v>3.887911670076437</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.21653745648078</v>
+        <v>76.37153772224235</v>
       </c>
       <c r="D15" t="n">
-        <v>4.467475353806798</v>
+        <v>4.558552662802619</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.26015955399647</v>
+        <v>75.512230135255</v>
       </c>
       <c r="D16" t="n">
-        <v>4.796338505243535</v>
+        <v>3.672997917914979</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.87925738315316</v>
+        <v>75.57092755977736</v>
       </c>
       <c r="D17" t="n">
-        <v>4.775737304986584</v>
+        <v>4.299833184262199</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.57014672300311</v>
+        <v>73.55807094047829</v>
       </c>
       <c r="D18" t="n">
-        <v>4.49734664651381</v>
+        <v>4.186787080123135</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.0162560508153</v>
+        <v>72.73680332724425</v>
       </c>
       <c r="D19" t="n">
-        <v>4.670911630114453</v>
+        <v>4.548141595482743</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.56471674754555</v>
+        <v>71.98456869038431</v>
       </c>
       <c r="D20" t="n">
-        <v>4.607326168424846</v>
+        <v>4.275441304402451</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.82895587661669</v>
+        <v>70.08695356296413</v>
       </c>
       <c r="D21" t="n">
-        <v>4.473846767246072</v>
+        <v>4.143319943163544</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.22298235776704</v>
+        <v>71.02732474759317</v>
       </c>
       <c r="D22" t="n">
-        <v>4.636008699479859</v>
+        <v>3.935878855830804</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.39173609408265</v>
+        <v>68.79490151281473</v>
       </c>
       <c r="D23" t="n">
-        <v>4.166109719560907</v>
+        <v>3.944011516372395</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.4512722089146</v>
+        <v>68.12765378561241</v>
       </c>
       <c r="D24" t="n">
-        <v>4.991735563889436</v>
+        <v>4.01856352943997</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.79878712243011</v>
+        <v>67.53819529267116</v>
       </c>
       <c r="D25" t="n">
-        <v>4.925423544956806</v>
+        <v>3.754005943553803</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.07251005413509</v>
+        <v>65.50450213446572</v>
       </c>
       <c r="D26" t="n">
-        <v>4.264875607641133</v>
+        <v>4.065100710814115</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.81382551703146</v>
+        <v>64.48551328415451</v>
       </c>
       <c r="D27" t="n">
-        <v>4.353860013179403</v>
+        <v>4.579008431468768</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.78673324196051</v>
+        <v>63.23549102331902</v>
       </c>
       <c r="D28" t="n">
-        <v>4.499050626549712</v>
+        <v>4.221239701374977</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.98945348190985</v>
+        <v>63.24045442417118</v>
       </c>
       <c r="D29" t="n">
-        <v>4.39486398366057</v>
+        <v>4.77416217071793</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.79265228685694</v>
+        <v>62.02974567599379</v>
       </c>
       <c r="D30" t="n">
-        <v>4.630806368562454</v>
+        <v>4.914904310270974</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.01530532853745</v>
+        <v>60.67624939217687</v>
       </c>
       <c r="D31" t="n">
-        <v>4.749695967120775</v>
+        <v>4.249500652263944</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.12494807539106</v>
+        <v>60.23177369251216</v>
       </c>
       <c r="D32" t="n">
-        <v>4.633397930572024</v>
+        <v>4.637334272333522</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.96142721073806</v>
+        <v>59.69564377081607</v>
       </c>
       <c r="D33" t="n">
-        <v>4.850054297592099</v>
+        <v>4.632094372239218</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.05549772472686</v>
+        <v>58.17785878811986</v>
       </c>
       <c r="D34" t="n">
-        <v>4.356264040429533</v>
+        <v>4.183297348575673</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.20450570334077</v>
+        <v>57.03357019429475</v>
       </c>
       <c r="D35" t="n">
-        <v>4.138373400643897</v>
+        <v>4.577883259975464</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.89809167747337</v>
+        <v>55.64008392784523</v>
       </c>
       <c r="D36" t="n">
-        <v>4.434098534554811</v>
+        <v>4.439848848893932</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.56156126635297</v>
+        <v>54.26133034772579</v>
       </c>
       <c r="D37" t="n">
-        <v>4.716799281430067</v>
+        <v>4.360162994226681</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.32267384555128</v>
+        <v>53.88248067675529</v>
       </c>
       <c r="D38" t="n">
-        <v>4.719943277106038</v>
+        <v>3.861593421233392</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.88414038414111</v>
+        <v>52.47544722583539</v>
       </c>
       <c r="D39" t="n">
-        <v>5.329551674377417</v>
+        <v>4.739460115078883</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.41487202014474</v>
+        <v>52.42327420926731</v>
       </c>
       <c r="D40" t="n">
-        <v>4.550691244147234</v>
+        <v>4.170716922471397</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.652692227526</v>
+        <v>50.77053434828002</v>
       </c>
       <c r="D41" t="n">
-        <v>4.305744932472666</v>
+        <v>4.313693507669248</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.29021134833727</v>
+        <v>50.36284941311903</v>
       </c>
       <c r="D42" t="n">
-        <v>4.211180639052151</v>
+        <v>4.395668241823134</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.61192124505621</v>
+        <v>49.50173885365498</v>
       </c>
       <c r="D43" t="n">
-        <v>4.34428732428275</v>
+        <v>4.376685956097232</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.38996385538449</v>
+        <v>48.00826320553081</v>
       </c>
       <c r="D44" t="n">
-        <v>4.010455897551334</v>
+        <v>4.430314147824168</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.46805202825037</v>
+        <v>46.55334870363475</v>
       </c>
       <c r="D45" t="n">
-        <v>4.62731923609445</v>
+        <v>4.550691267910402</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.2847935529637</v>
+        <v>45.34901074668264</v>
       </c>
       <c r="D46" t="n">
-        <v>4.645869599314337</v>
+        <v>3.921476240770425</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.1681886444163</v>
+        <v>45.13075863210955</v>
       </c>
       <c r="D47" t="n">
-        <v>4.384108364900248</v>
+        <v>4.073710962829902</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.33888656792629</v>
+        <v>44.33629548646831</v>
       </c>
       <c r="D48" t="n">
-        <v>4.665493561461401</v>
+        <v>4.335997254841637</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.10544790408639</v>
+        <v>42.82038719039313</v>
       </c>
       <c r="D49" t="n">
-        <v>4.735299454506262</v>
+        <v>4.218031369466621</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.10281999274441</v>
+        <v>42.41216708055348</v>
       </c>
       <c r="D50" t="n">
-        <v>5.313625902566288</v>
+        <v>4.429290321450804</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.75701726703512</v>
+        <v>40.69436600027026</v>
       </c>
       <c r="D51" t="n">
-        <v>4.357685326795845</v>
+        <v>4.731455474051667</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.02085300371657</v>
+        <v>39.65875947001847</v>
       </c>
       <c r="D52" t="n">
-        <v>4.465891966987352</v>
+        <v>4.252343709607873</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.1705427606531</v>
+        <v>38.16224782866146</v>
       </c>
       <c r="D53" t="n">
-        <v>4.723656216346821</v>
+        <v>4.59827997784931</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.85040379664349</v>
+        <v>38.25529157467275</v>
       </c>
       <c r="D54" t="n">
-        <v>4.243572657429366</v>
+        <v>4.0620374698118</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.93258378396621</v>
+        <v>37.73200307351339</v>
       </c>
       <c r="D55" t="n">
-        <v>4.647394251065659</v>
+        <v>4.37025393219702</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.28866099059233</v>
+        <v>35.50150317342595</v>
       </c>
       <c r="D56" t="n">
-        <v>4.49668242280834</v>
+        <v>4.709032498130279</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.63671855560639</v>
+        <v>34.89013619924008</v>
       </c>
       <c r="D57" t="n">
-        <v>4.07225659282907</v>
+        <v>4.74089394953649</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.75534916640284</v>
+        <v>33.42079109065767</v>
       </c>
       <c r="D58" t="n">
-        <v>4.667343322709865</v>
+        <v>5.058498037298966</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.49788856586457</v>
+        <v>33.12940325619139</v>
       </c>
       <c r="D59" t="n">
-        <v>4.573086744118251</v>
+        <v>4.436448682754397</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.23453407685438</v>
+        <v>32.5999809205756</v>
       </c>
       <c r="D60" t="n">
-        <v>4.64619463051728</v>
+        <v>4.419478601726865</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.39750016514987</v>
+        <v>31.58805904938063</v>
       </c>
       <c r="D61" t="n">
-        <v>5.023751140860297</v>
+        <v>4.843369795579995</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.42538000428664</v>
+        <v>30.44513056591161</v>
       </c>
       <c r="D62" t="n">
-        <v>4.353402933528874</v>
+        <v>4.703996461845574</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.67252233701347</v>
+        <v>29.20808851608658</v>
       </c>
       <c r="D63" t="n">
-        <v>4.849033663714983</v>
+        <v>4.768795163626282</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.14004145139164</v>
+        <v>28.5751709095892</v>
       </c>
       <c r="D64" t="n">
-        <v>4.29350980970043</v>
+        <v>4.117166950646652</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.96270454263845</v>
+        <v>27.29508237426179</v>
       </c>
       <c r="D65" t="n">
-        <v>4.334726769556546</v>
+        <v>3.96589297035127</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.35667305463345</v>
+        <v>25.33048309717488</v>
       </c>
       <c r="D66" t="n">
-        <v>4.852632827266548</v>
+        <v>4.442023223835883</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.51116412872442</v>
+        <v>24.37705852809932</v>
       </c>
       <c r="D67" t="n">
-        <v>4.674493904315393</v>
+        <v>4.505464365412988</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.94012085617852</v>
+        <v>24.06633240103575</v>
       </c>
       <c r="D68" t="n">
-        <v>4.541880723272815</v>
+        <v>4.019951762130519</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.59843188625685</v>
+        <v>23.37190535976807</v>
       </c>
       <c r="D69" t="n">
-        <v>4.632053584599543</v>
+        <v>4.293525781464547</v>
       </c>
     </row>
   </sheetData>
